--- a/conditions/mTBIconditions1.xlsx
+++ b/conditions/mTBIconditions1.xlsx
@@ -31,7 +31,7 @@
     <t>up</t>
   </si>
   <si>
-    <t>up.jpg</t>
+    <t>images/up.jpg</t>
   </si>
   <si>
     <t>Rate your ability to control your brain</t>
@@ -40,7 +40,7 @@
     <t>down</t>
   </si>
   <si>
-    <t>down.jpg</t>
+    <t>images/down.jpg</t>
   </si>
 </sst>
 </file>
@@ -138,13 +138,14 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C7" activeCellId="0" pane="topLeft" sqref="C7"/>
+      <selection activeCell="C17" activeCellId="0" pane="topLeft" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.54509803921569"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.8588235294118"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.5921568627451"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.2117647058824"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.0117647058824"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.5921568627451"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1">
@@ -158,7 +159,7 @@
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -243,11 +244,11 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="C7 A1"/>
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.5921568627451"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -268,11 +269,11 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="C7 A1"/>
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.5921568627451"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
